--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H2">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I2">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J2">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>38.76995142994544</v>
+        <v>61.18145724288266</v>
       </c>
       <c r="R2">
-        <v>38.76995142994544</v>
+        <v>550.6331151859439</v>
       </c>
       <c r="S2">
-        <v>9.482422327862826E-05</v>
+        <v>0.000136929688435835</v>
       </c>
       <c r="T2">
-        <v>9.482422327862826E-05</v>
+        <v>0.0001526269573197969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H3">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I3">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J3">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>2020.174735554705</v>
+        <v>2880.31915932943</v>
       </c>
       <c r="R3">
-        <v>2020.174735554705</v>
+        <v>25922.87243396487</v>
       </c>
       <c r="S3">
-        <v>0.00494097859607127</v>
+        <v>0.006446417311000326</v>
       </c>
       <c r="T3">
-        <v>0.00494097859607127</v>
+        <v>0.007185418085959489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H4">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I4">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J4">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>1333.884763079938</v>
+        <v>1818.99892417979</v>
       </c>
       <c r="R4">
-        <v>1333.884763079938</v>
+        <v>16370.99031761811</v>
       </c>
       <c r="S4">
-        <v>0.003262438613852818</v>
+        <v>0.004071085704354207</v>
       </c>
       <c r="T4">
-        <v>0.003262438613852818</v>
+        <v>0.004537784545788051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H5">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I5">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J5">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>1565.67785866097</v>
+        <v>2166.627663103446</v>
       </c>
       <c r="R5">
-        <v>1565.67785866097</v>
+        <v>19499.64896793101</v>
       </c>
       <c r="S5">
-        <v>0.003829362209038015</v>
+        <v>0.004849110567723997</v>
       </c>
       <c r="T5">
-        <v>0.003829362209038015</v>
+        <v>0.005405000187419535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H6">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I6">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J6">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>473.3278234632559</v>
+        <v>642.6919335294979</v>
       </c>
       <c r="R6">
-        <v>473.3278234632559</v>
+        <v>3856.151601176987</v>
       </c>
       <c r="S6">
-        <v>0.001157673444527451</v>
+        <v>0.001438403238240229</v>
       </c>
       <c r="T6">
-        <v>0.001157673444527451</v>
+        <v>0.001068865401698112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>647.188220337169</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H7">
-        <v>647.188220337169</v>
+        <v>2063.880676</v>
       </c>
       <c r="I7">
-        <v>0.7449535409126804</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J7">
-        <v>0.7449535409126804</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>2173.971412874489</v>
+        <v>2715.155192997358</v>
       </c>
       <c r="R7">
-        <v>2173.971412874489</v>
+        <v>24436.39673697622</v>
       </c>
       <c r="S7">
-        <v>0.005317137191369847</v>
+        <v>0.00607676527147967</v>
       </c>
       <c r="T7">
-        <v>0.005317137191369847</v>
+        <v>0.006773390083094847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>647.188220337169</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H8">
-        <v>647.188220337169</v>
+        <v>2063.880676</v>
       </c>
       <c r="I8">
-        <v>0.7449535409126804</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J8">
-        <v>0.7449535409126804</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>113278.5046698571</v>
+        <v>127824.8978591117</v>
       </c>
       <c r="R8">
-        <v>113278.5046698571</v>
+        <v>1150424.080732005</v>
       </c>
       <c r="S8">
-        <v>0.2770585420745982</v>
+        <v>0.286083794452718</v>
       </c>
       <c r="T8">
-        <v>0.2770585420745982</v>
+        <v>0.3188797081524177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>647.188220337169</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H9">
-        <v>647.188220337169</v>
+        <v>2063.880676</v>
       </c>
       <c r="I9">
-        <v>0.7449535409126804</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J9">
-        <v>0.7449535409126804</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>74795.74350884679</v>
+        <v>80724.85680484361</v>
       </c>
       <c r="R9">
-        <v>74795.74350884679</v>
+        <v>726523.7112435926</v>
       </c>
       <c r="S9">
-        <v>0.1829367337637616</v>
+        <v>0.1806696013701197</v>
       </c>
       <c r="T9">
-        <v>0.1829367337637616</v>
+        <v>0.2013811018800616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>647.188220337169</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H10">
-        <v>647.188220337169</v>
+        <v>2063.880676</v>
       </c>
       <c r="I10">
-        <v>0.7449535409126804</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J10">
-        <v>0.7449535409126804</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>87793.22080528803</v>
+        <v>96152.17773276231</v>
       </c>
       <c r="R10">
-        <v>87793.22080528803</v>
+        <v>865369.5995948608</v>
       </c>
       <c r="S10">
-        <v>0.2147261903856933</v>
+        <v>0.2151973544387226</v>
       </c>
       <c r="T10">
-        <v>0.2147261903856933</v>
+        <v>0.2398670281546957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>647.188220337169</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H11">
-        <v>647.188220337169</v>
+        <v>2063.880676</v>
       </c>
       <c r="I11">
-        <v>0.7449535409126804</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J11">
-        <v>0.7449535409126804</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>26541.20315282193</v>
+        <v>28521.84991103867</v>
       </c>
       <c r="R11">
-        <v>26541.20315282193</v>
+        <v>171131.099466232</v>
       </c>
       <c r="S11">
-        <v>0.06491493749725756</v>
+        <v>0.06383450473282909</v>
       </c>
       <c r="T11">
-        <v>0.06491493749725756</v>
+        <v>0.04743488594125381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.321253301182145</v>
+        <v>0.6984029999999999</v>
       </c>
       <c r="H12">
-        <v>0.321253301182145</v>
+        <v>2.095209</v>
       </c>
       <c r="I12">
-        <v>0.0003697823550015289</v>
+        <v>0.0007632747813077692</v>
       </c>
       <c r="J12">
-        <v>0.0003697823550015289</v>
+        <v>0.0008266971900855241</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>1.079122689683219</v>
+        <v>2.756369427224</v>
       </c>
       <c r="R12">
-        <v>1.079122689683219</v>
+        <v>24.80732484501599</v>
       </c>
       <c r="S12">
-        <v>2.639337092192468E-06</v>
+        <v>6.169006491386737E-06</v>
       </c>
       <c r="T12">
-        <v>2.639337092192468E-06</v>
+        <v>6.87620560027525E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.321253301182145</v>
+        <v>0.6984029999999999</v>
       </c>
       <c r="H13">
-        <v>0.321253301182145</v>
+        <v>2.095209</v>
       </c>
       <c r="I13">
-        <v>0.0003697823550015289</v>
+        <v>0.0007632747813077692</v>
       </c>
       <c r="J13">
-        <v>0.0003697823550015289</v>
+        <v>0.0008266971900855241</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>56.22953637692876</v>
+        <v>129.765194050633</v>
       </c>
       <c r="R13">
-        <v>56.22953637692876</v>
+        <v>1167.886746455697</v>
       </c>
       <c r="S13">
-        <v>0.0001375271806025873</v>
+        <v>0.0002904263545183194</v>
       </c>
       <c r="T13">
-        <v>0.0001375271806025873</v>
+        <v>0.0003237200881851364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.321253301182145</v>
+        <v>0.6984029999999999</v>
       </c>
       <c r="H14">
-        <v>0.321253301182145</v>
+        <v>2.095209</v>
       </c>
       <c r="I14">
-        <v>0.0003697823550015289</v>
+        <v>0.0007632747813077692</v>
       </c>
       <c r="J14">
-        <v>0.0003697823550015289</v>
+        <v>0.0008266971900855241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>37.12734373328339</v>
+        <v>81.95020597267299</v>
       </c>
       <c r="R14">
-        <v>37.12734373328339</v>
+        <v>737.5518537540569</v>
       </c>
       <c r="S14">
-        <v>9.080670473030302E-05</v>
+        <v>0.0001834120447073206</v>
       </c>
       <c r="T14">
-        <v>9.080670473030302E-05</v>
+        <v>0.0002044379318996163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.321253301182145</v>
+        <v>0.6984029999999999</v>
       </c>
       <c r="H15">
-        <v>0.321253301182145</v>
+        <v>2.095209</v>
       </c>
       <c r="I15">
-        <v>0.0003697823550015289</v>
+        <v>0.0007632747813077692</v>
       </c>
       <c r="J15">
-        <v>0.0003697823550015289</v>
+        <v>0.0008266971900855241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>43.57907192812972</v>
+        <v>97.61170328205698</v>
       </c>
       <c r="R15">
-        <v>43.57907192812972</v>
+        <v>878.5053295385129</v>
       </c>
       <c r="S15">
-        <v>0.0001065864540546367</v>
+        <v>0.0002184639059027662</v>
       </c>
       <c r="T15">
-        <v>0.0001065864540546367</v>
+        <v>0.0002435080487148142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.321253301182145</v>
+        <v>0.6984029999999999</v>
       </c>
       <c r="H16">
-        <v>0.321253301182145</v>
+        <v>2.095209</v>
       </c>
       <c r="I16">
-        <v>0.0003697823550015289</v>
+        <v>0.0007632747813077692</v>
       </c>
       <c r="J16">
-        <v>0.0003697823550015289</v>
+        <v>0.0008266971900855241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>13.17460494838415</v>
+        <v>28.95479245732199</v>
       </c>
       <c r="R16">
-        <v>13.17460494838415</v>
+        <v>173.728754743932</v>
       </c>
       <c r="S16">
-        <v>3.222267852180948E-05</v>
+        <v>6.480346968797632E-05</v>
       </c>
       <c r="T16">
-        <v>3.222267852180948E-05</v>
+        <v>4.815491568568204E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>209.711964252028</v>
+        <v>0.255552</v>
       </c>
       <c r="H17">
-        <v>209.711964252028</v>
+        <v>0.766656</v>
       </c>
       <c r="I17">
-        <v>0.2413913996455498</v>
+        <v>0.0002792891738906664</v>
       </c>
       <c r="J17">
-        <v>0.2413913996455498</v>
+        <v>0.0003024960092106361</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>704.4439328394278</v>
+        <v>1.008580604416</v>
       </c>
       <c r="R17">
-        <v>704.4439328394278</v>
+        <v>9.077225439744</v>
       </c>
       <c r="S17">
-        <v>0.001722941255047503</v>
+        <v>2.257295496850477E-06</v>
       </c>
       <c r="T17">
-        <v>0.001722941255047503</v>
+        <v>2.516066072971538E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>209.711964252028</v>
+        <v>0.255552</v>
       </c>
       <c r="H18">
-        <v>209.711964252028</v>
+        <v>0.766656</v>
       </c>
       <c r="I18">
-        <v>0.2413913996455498</v>
+        <v>0.0002792891738906664</v>
       </c>
       <c r="J18">
-        <v>0.2413913996455498</v>
+        <v>0.0003024960092106361</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>36706.25789429859</v>
+        <v>47.482262919872</v>
       </c>
       <c r="R18">
-        <v>36706.25789429859</v>
+        <v>427.340366278848</v>
       </c>
       <c r="S18">
-        <v>0.08977680564240983</v>
+        <v>0.000106269640522543</v>
       </c>
       <c r="T18">
-        <v>0.08977680564240983</v>
+        <v>0.0001184521200165062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>209.711964252028</v>
+        <v>0.255552</v>
       </c>
       <c r="H19">
-        <v>209.711964252028</v>
+        <v>0.766656</v>
       </c>
       <c r="I19">
-        <v>0.2413913996455498</v>
+        <v>0.0002792891738906664</v>
       </c>
       <c r="J19">
-        <v>0.2413913996455498</v>
+        <v>0.0003024960092106361</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>24236.47680231161</v>
+        <v>29.986324567232</v>
       </c>
       <c r="R19">
-        <v>24236.47680231161</v>
+        <v>269.876921105088</v>
       </c>
       <c r="S19">
-        <v>0.05927799759931051</v>
+        <v>6.711213275006722E-05</v>
       </c>
       <c r="T19">
-        <v>0.05927799759931051</v>
+        <v>7.480569581289133E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>209.711964252028</v>
+        <v>0.255552</v>
       </c>
       <c r="H20">
-        <v>209.711964252028</v>
+        <v>0.766656</v>
       </c>
       <c r="I20">
-        <v>0.2413913996455498</v>
+        <v>0.0002792891738906664</v>
       </c>
       <c r="J20">
-        <v>0.2413913996455498</v>
+        <v>0.0003024960092106361</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>28448.12097089335</v>
+        <v>35.717008657088</v>
       </c>
       <c r="R20">
-        <v>28448.12097089335</v>
+        <v>321.453077913792</v>
       </c>
       <c r="S20">
-        <v>0.06957891034957159</v>
+        <v>7.993792707256946E-05</v>
       </c>
       <c r="T20">
-        <v>0.06957891034957159</v>
+        <v>8.910180635702912E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.255552</v>
+      </c>
+      <c r="H21">
+        <v>0.766656</v>
+      </c>
+      <c r="I21">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J21">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>10.594821502848</v>
+      </c>
+      <c r="R21">
+        <v>63.568929017088</v>
+      </c>
+      <c r="S21">
+        <v>2.371217804863629E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.762032095123792E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>210.592407</v>
+      </c>
+      <c r="H22">
+        <v>421.184814</v>
+      </c>
+      <c r="I22">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J22">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.840024</v>
+      </c>
+      <c r="O22">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P22">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q22">
+        <v>831.139717699256</v>
+      </c>
+      <c r="R22">
+        <v>4986.838306195536</v>
+      </c>
+      <c r="S22">
+        <v>0.001860166588373415</v>
+      </c>
+      <c r="T22">
+        <v>0.001382274215497208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>210.592407</v>
+      </c>
+      <c r="H23">
+        <v>421.184814</v>
+      </c>
+      <c r="I23">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J23">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P23">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q23">
+        <v>39128.64715636228</v>
+      </c>
+      <c r="R23">
+        <v>234771.8829381737</v>
+      </c>
+      <c r="S23">
+        <v>0.08757348558675754</v>
+      </c>
+      <c r="T23">
+        <v>0.06507512383266791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>210.592407</v>
+      </c>
+      <c r="H24">
+        <v>421.184814</v>
+      </c>
+      <c r="I24">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J24">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N24">
+        <v>352.018273</v>
+      </c>
+      <c r="O24">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P24">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q24">
+        <v>24710.79180635104</v>
+      </c>
+      <c r="R24">
+        <v>148264.7508381062</v>
+      </c>
+      <c r="S24">
+        <v>0.05530500866649522</v>
+      </c>
+      <c r="T24">
+        <v>0.0410966888370967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>209.711964252028</v>
-      </c>
-      <c r="H21">
-        <v>209.711964252028</v>
-      </c>
-      <c r="I21">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="J21">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N21">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O21">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P21">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q21">
-        <v>8600.29226720266</v>
-      </c>
-      <c r="R21">
-        <v>8600.29226720266</v>
-      </c>
-      <c r="S21">
-        <v>0.02103474479921041</v>
-      </c>
-      <c r="T21">
-        <v>0.02103474479921041</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>210.592407</v>
+      </c>
+      <c r="H25">
+        <v>421.184814</v>
+      </c>
+      <c r="I25">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J25">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N25">
+        <v>419.292457</v>
+      </c>
+      <c r="O25">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P25">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q25">
+        <v>29433.26925219133</v>
+      </c>
+      <c r="R25">
+        <v>176599.615513148</v>
+      </c>
+      <c r="S25">
+        <v>0.06587434444967312</v>
+      </c>
+      <c r="T25">
+        <v>0.04895067375400353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>210.592407</v>
+      </c>
+      <c r="H26">
+        <v>421.184814</v>
+      </c>
+      <c r="I26">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J26">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.458574</v>
+      </c>
+      <c r="N26">
+        <v>82.917148</v>
+      </c>
+      <c r="O26">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P26">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q26">
+        <v>8730.860889447618</v>
+      </c>
+      <c r="R26">
+        <v>34923.44355779047</v>
+      </c>
+      <c r="S26">
+        <v>0.01954046397787878</v>
+      </c>
+      <c r="T26">
+        <v>0.009680236771730015</v>
       </c>
     </row>
   </sheetData>
